--- a/捐款明细.xlsx
+++ b/捐款明细.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addis\Desktop\【写】小时物理百科_TeX\1_小时物理百科_TeX20170719\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addis\Documents\GitHub\PhysWiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Atom</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>向风不求</t>
+  </si>
+  <si>
+    <t>CC</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -462,7 +465,7 @@
       </c>
       <c r="F1">
         <f>SUM(D:D)</f>
-        <v>623.66</v>
+        <v>643.66</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -729,6 +732,20 @@
       </c>
       <c r="D20">
         <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>43055</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/捐款明细.xlsx
+++ b/捐款明细.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Atom</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>CC</t>
+  </si>
+  <si>
+    <t>某某</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -465,7 +468,7 @@
       </c>
       <c r="F1">
         <f>SUM(D:D)</f>
-        <v>643.66</v>
+        <v>663.66</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -745,6 +748,20 @@
         <v>7</v>
       </c>
       <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>43095</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
         <v>20</v>
       </c>
     </row>
